--- a/Test Open Xml/testdata/testsetrowvalues_str.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_str.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Ra0fd98b9c2a142a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R812f54748b1746be"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Test Open Xml/testdata/testsetrowvalues_str.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_str.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R812f54748b1746be"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rc4c65ec97c9e4748"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/Test Open Xml/testdata/testsetrowvalues_str.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues_str.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rc4c65ec97c9e4748"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R280439e633d14ddd"/>
   </x:sheets>
 </x:workbook>
 </file>
